--- a/rooming.xlsx
+++ b/rooming.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>Att.</t>
   </si>
@@ -132,6 +132,9 @@
     <t>activity</t>
   </si>
   <si>
+    <t>Entrace basic ticket to Camp Nou Museum including 10% Cutting Edge Management fee</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entrance ticket to park guell (including Parc ticket management fee, bus parking and Cutting Edge Events fee) </t>
   </si>
   <si>
@@ -144,7 +147,7 @@
     <t>Restaurant El Glop - 3 courses menu including drinks and coffee, from</t>
   </si>
   <si>
-    <t>Hotel Evenia Olympic Resort - all-inclusive package // Double room  (2 nights x 30 rooms)</t>
+    <t>Hotel Evenia Olympic Resort - all-inclusive package // Double room  (2 nights x 27 rooms)</t>
   </si>
   <si>
     <t>Hotel Evenia Olympic Resort - all-inclusive package // Single room  (2 nights x 2 rooms)</t>
@@ -2496,7 +2499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AG45"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3302,14 +3305,14 @@
         <v>25</v>
       </c>
       <c r="D20" s="49">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E20" s="50">
         <v>1.21</v>
       </c>
       <c r="F20" s="51">
         <f>E20*D20</f>
-        <v>75.02</v>
+        <v>70.17999999999999</v>
       </c>
       <c r="G20" t="s" s="52">
         <v>19</v>
@@ -3350,14 +3353,14 @@
         <v>26</v>
       </c>
       <c r="D21" s="43">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E21" s="44">
         <v>30</v>
       </c>
       <c r="F21" s="45">
         <f>E21*D21</f>
-        <v>1800</v>
+        <v>1680</v>
       </c>
       <c r="G21" t="s" s="30">
         <v>19</v>
@@ -3446,14 +3449,14 @@
         <v>28</v>
       </c>
       <c r="D23" s="63">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E23" s="64">
         <v>38</v>
       </c>
       <c r="F23" s="65">
         <f>E23*D23</f>
-        <v>2280</v>
+        <v>0</v>
       </c>
       <c r="G23" t="s" s="30">
         <v>19</v>
@@ -3638,14 +3641,14 @@
         <v>34</v>
       </c>
       <c r="D27" s="75">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E27" s="76">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F27" s="77">
         <f>E27*D27</f>
-        <v>720</v>
+        <v>1624</v>
       </c>
       <c r="G27" t="s" s="78">
         <v>33</v>
@@ -3677,74 +3680,74 @@
       <c r="AF27" s="79"/>
       <c r="AG27" s="79"/>
     </row>
-    <row r="28" ht="13.65" customHeight="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="55">
+    <row r="28" ht="24.65" customHeight="1">
+      <c r="A28" s="72"/>
+      <c r="B28" s="73">
         <v>43746</v>
       </c>
-      <c r="C28" t="s" s="56">
+      <c r="C28" t="s" s="74">
         <v>35</v>
       </c>
-      <c r="D28" s="57">
-        <v>60</v>
-      </c>
-      <c r="E28" s="58">
+      <c r="D28" s="75">
+        <v>56</v>
+      </c>
+      <c r="E28" s="76">
+        <v>12</v>
+      </c>
+      <c r="F28" s="77">
+        <f>E28*D28</f>
+        <v>672</v>
+      </c>
+      <c r="G28" t="s" s="78">
         <v>33</v>
       </c>
-      <c r="F28" s="59">
-        <f>E28*D28</f>
-        <v>1980</v>
-      </c>
-      <c r="G28" t="s" s="70">
-        <v>36</v>
-      </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="2"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="79"/>
+      <c r="U28" s="79"/>
+      <c r="V28" s="79"/>
+      <c r="W28" s="79"/>
+      <c r="X28" s="79"/>
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="79"/>
+      <c r="AA28" s="79"/>
+      <c r="AB28" s="79"/>
+      <c r="AC28" s="79"/>
+      <c r="AD28" s="79"/>
+      <c r="AE28" s="79"/>
+      <c r="AF28" s="79"/>
+      <c r="AG28" s="79"/>
     </row>
     <row r="29" ht="13.65" customHeight="1">
       <c r="A29" s="4"/>
-      <c r="B29" s="61">
+      <c r="B29" s="55">
         <v>43746</v>
       </c>
-      <c r="C29" t="s" s="80">
+      <c r="C29" t="s" s="56">
+        <v>36</v>
+      </c>
+      <c r="D29" s="57">
+        <v>56</v>
+      </c>
+      <c r="E29" s="58">
+        <v>33</v>
+      </c>
+      <c r="F29" s="59">
+        <f>E29*D29</f>
+        <v>1848</v>
+      </c>
+      <c r="G29" t="s" s="70">
         <v>37</v>
-      </c>
-      <c r="D29" s="63">
-        <v>0</v>
-      </c>
-      <c r="E29" s="64">
-        <v>35</v>
-      </c>
-      <c r="F29" s="81">
-        <f>E29*D29</f>
-        <v>0</v>
-      </c>
-      <c r="G29" t="s" s="70">
-        <v>36</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -3773,26 +3776,26 @@
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
     </row>
-    <row r="30" ht="24.65" customHeight="1">
+    <row r="30" ht="13.65" customHeight="1">
       <c r="A30" s="4"/>
-      <c r="B30" s="55">
+      <c r="B30" s="61">
         <v>43746</v>
       </c>
-      <c r="C30" t="s" s="56">
+      <c r="C30" t="s" s="80">
         <v>38</v>
       </c>
-      <c r="D30" s="57">
-        <v>60</v>
-      </c>
-      <c r="E30" s="58">
-        <v>140</v>
-      </c>
-      <c r="F30" s="59">
+      <c r="D30" s="63">
+        <v>0</v>
+      </c>
+      <c r="E30" s="64">
+        <v>35</v>
+      </c>
+      <c r="F30" s="81">
         <f>E30*D30</f>
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="G30" t="s" s="70">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -3821,171 +3824,172 @@
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
     </row>
-    <row r="31" ht="14.15" customHeight="1">
-      <c r="A31" s="72"/>
-      <c r="B31" s="73">
+    <row r="31" ht="24.65" customHeight="1">
+      <c r="A31" s="4"/>
+      <c r="B31" s="55">
         <v>43746</v>
       </c>
-      <c r="C31" t="s" s="74">
+      <c r="C31" t="s" s="56">
         <v>39</v>
       </c>
-      <c r="D31" s="75">
+      <c r="D31" s="57">
+        <f>27*2</f>
+        <v>54</v>
+      </c>
+      <c r="E31" s="58">
+        <v>140</v>
+      </c>
+      <c r="F31" s="59">
+        <f>E31*D31</f>
+        <v>7560</v>
+      </c>
+      <c r="G31" t="s" s="70">
+        <v>19</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+    </row>
+    <row r="32" ht="14.15" customHeight="1">
+      <c r="A32" s="72"/>
+      <c r="B32" s="73">
+        <v>43746</v>
+      </c>
+      <c r="C32" t="s" s="74">
+        <v>40</v>
+      </c>
+      <c r="D32" s="75">
         <v>4</v>
       </c>
-      <c r="E31" s="76">
+      <c r="E32" s="76">
         <v>120</v>
       </c>
-      <c r="F31" s="77">
-        <f>E31*D31</f>
+      <c r="F32" s="77">
+        <f>E32*D32</f>
         <v>480</v>
       </c>
-      <c r="G31" t="s" s="78">
+      <c r="G32" t="s" s="78">
         <v>19</v>
       </c>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="79"/>
-      <c r="O31" s="79"/>
-      <c r="P31" s="79"/>
-      <c r="Q31" s="79"/>
-      <c r="R31" s="79"/>
-      <c r="S31" s="79"/>
-      <c r="T31" s="79"/>
-      <c r="U31" s="79"/>
-      <c r="V31" s="79"/>
-      <c r="W31" s="79"/>
-      <c r="X31" s="79"/>
-      <c r="Y31" s="79"/>
-      <c r="Z31" s="79"/>
-      <c r="AA31" s="79"/>
-      <c r="AB31" s="79"/>
-      <c r="AC31" s="79"/>
-      <c r="AD31" s="79"/>
-      <c r="AE31" s="79"/>
-      <c r="AF31" s="79"/>
-      <c r="AG31" s="79"/>
-    </row>
-    <row r="32" ht="14.15" customHeight="1">
-      <c r="A32" s="82"/>
-      <c r="B32" s="55">
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="79"/>
+      <c r="Q32" s="79"/>
+      <c r="R32" s="79"/>
+      <c r="S32" s="79"/>
+      <c r="T32" s="79"/>
+      <c r="U32" s="79"/>
+      <c r="V32" s="79"/>
+      <c r="W32" s="79"/>
+      <c r="X32" s="79"/>
+      <c r="Y32" s="79"/>
+      <c r="Z32" s="79"/>
+      <c r="AA32" s="79"/>
+      <c r="AB32" s="79"/>
+      <c r="AC32" s="79"/>
+      <c r="AD32" s="79"/>
+      <c r="AE32" s="79"/>
+      <c r="AF32" s="79"/>
+      <c r="AG32" s="79"/>
+    </row>
+    <row r="33" ht="14.15" customHeight="1">
+      <c r="A33" s="82"/>
+      <c r="B33" s="55">
         <v>43746</v>
       </c>
-      <c r="C32" t="s" s="56">
-        <v>40</v>
-      </c>
-      <c r="D32" s="57">
+      <c r="C33" t="s" s="56">
+        <v>41</v>
+      </c>
+      <c r="D33" s="57">
         <v>0</v>
       </c>
-      <c r="E32" s="58">
+      <c r="E33" s="58">
         <v>100</v>
       </c>
-      <c r="F32" s="59">
-        <f>E32*D32</f>
+      <c r="F33" s="59">
+        <f>E33*D33</f>
         <v>0</v>
       </c>
-      <c r="G32" t="s" s="83">
+      <c r="G33" t="s" s="83">
         <v>19</v>
       </c>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="84"/>
-      <c r="R32" s="84"/>
-      <c r="S32" s="84"/>
-      <c r="T32" s="84"/>
-      <c r="U32" s="84"/>
-      <c r="V32" s="84"/>
-      <c r="W32" s="84"/>
-      <c r="X32" s="84"/>
-      <c r="Y32" s="84"/>
-      <c r="Z32" s="84"/>
-      <c r="AA32" s="84"/>
-      <c r="AB32" s="84"/>
-      <c r="AC32" s="84"/>
-      <c r="AD32" s="84"/>
-      <c r="AE32" s="84"/>
-      <c r="AF32" s="84"/>
-      <c r="AG32" s="84"/>
-    </row>
-    <row r="33" ht="14.65" customHeight="1">
-      <c r="A33" s="4"/>
-      <c r="B33" s="61">
-        <v>43746</v>
-      </c>
-      <c r="C33" t="s" s="80">
-        <v>25</v>
-      </c>
-      <c r="D33" s="63">
-        <f>62*2</f>
-        <v>124</v>
-      </c>
-      <c r="E33" s="64">
-        <v>1</v>
-      </c>
-      <c r="F33" s="65">
-        <f>E33*D33</f>
-        <v>124</v>
-      </c>
-      <c r="G33" t="s" s="70">
-        <v>19</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="2"/>
-      <c r="AE33" s="2"/>
-      <c r="AF33" s="2"/>
-      <c r="AG33" s="2"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="84"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="84"/>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="84"/>
+      <c r="R33" s="84"/>
+      <c r="S33" s="84"/>
+      <c r="T33" s="84"/>
+      <c r="U33" s="84"/>
+      <c r="V33" s="84"/>
+      <c r="W33" s="84"/>
+      <c r="X33" s="84"/>
+      <c r="Y33" s="84"/>
+      <c r="Z33" s="84"/>
+      <c r="AA33" s="84"/>
+      <c r="AB33" s="84"/>
+      <c r="AC33" s="84"/>
+      <c r="AD33" s="84"/>
+      <c r="AE33" s="84"/>
+      <c r="AF33" s="84"/>
+      <c r="AG33" s="84"/>
     </row>
     <row r="34" ht="14.65" customHeight="1">
       <c r="A34" s="4"/>
-      <c r="B34" s="55">
-        <v>43748</v>
-      </c>
-      <c r="C34" t="s" s="56">
-        <v>41</v>
-      </c>
-      <c r="D34" s="57">
+      <c r="B34" s="61">
+        <v>43746</v>
+      </c>
+      <c r="C34" t="s" s="80">
+        <v>25</v>
+      </c>
+      <c r="D34" s="63">
+        <f>58*2</f>
+        <v>116</v>
+      </c>
+      <c r="E34" s="64">
         <v>1</v>
       </c>
-      <c r="E34" s="58">
-        <v>700</v>
-      </c>
-      <c r="F34" s="59">
+      <c r="F34" s="65">
         <f>E34*D34</f>
-        <v>700</v>
+        <v>116</v>
       </c>
       <c r="G34" t="s" s="70">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -4014,18 +4018,27 @@
       <c r="AF34" s="2"/>
       <c r="AG34" s="2"/>
     </row>
-    <row r="35" ht="13.5" customHeight="1">
-      <c r="A35" s="2"/>
-      <c r="B35" s="85"/>
-      <c r="C35" t="s" s="86">
+    <row r="35" ht="14.65" customHeight="1">
+      <c r="A35" s="4"/>
+      <c r="B35" s="55">
+        <v>43748</v>
+      </c>
+      <c r="C35" t="s" s="56">
         <v>42</v>
       </c>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="87">
-        <v>0</v>
-      </c>
-      <c r="G35" s="6"/>
+      <c r="D35" s="57">
+        <v>1</v>
+      </c>
+      <c r="E35" s="58">
+        <v>700</v>
+      </c>
+      <c r="F35" s="59">
+        <f>E35*D35</f>
+        <v>700</v>
+      </c>
+      <c r="G35" t="s" s="70">
+        <v>30</v>
+      </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -4053,14 +4066,18 @@
       <c r="AF35" s="2"/>
       <c r="AG35" s="2"/>
     </row>
-    <row r="36" ht="13.45" customHeight="1">
+    <row r="36" ht="13.5" customHeight="1">
       <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="2"/>
+      <c r="B36" s="85"/>
+      <c r="C36" t="s" s="86">
+        <v>43</v>
+      </c>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="87">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -4091,10 +4108,10 @@
     <row r="37" ht="13.45" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="C37" s="10"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="F37" s="10"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -4230,11 +4247,11 @@
     </row>
     <row r="41" ht="13.45" customHeight="1">
       <c r="A41" s="2"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -4263,16 +4280,14 @@
       <c r="AF41" s="2"/>
       <c r="AG41" s="2"/>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="12"/>
-      <c r="B42" t="s" s="88">
-        <v>43</v>
-      </c>
-      <c r="C42" s="89"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="90"/>
+    <row r="42" ht="13.45" customHeight="1">
+      <c r="A42" s="2"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -4376,12 +4391,14 @@
     </row>
     <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="12"/>
-      <c r="B45" s="91"/>
-      <c r="C45" s="91"/>
-      <c r="D45" s="91"/>
-      <c r="E45" s="91"/>
-      <c r="F45" s="91"/>
-      <c r="G45" s="92"/>
+      <c r="B45" t="s" s="88">
+        <v>46</v>
+      </c>
+      <c r="C45" s="89"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="90"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -4408,6 +4425,41 @@
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
       <c r="AG45" s="2"/>
+    </row>
+    <row r="46" ht="12.75" customHeight="1">
+      <c r="A46" s="12"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="91"/>
+      <c r="F46" s="91"/>
+      <c r="G46" s="92"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="2"/>
+      <c r="AF46" s="2"/>
+      <c r="AG46" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
